--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01-2/script/manexo.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01-2/script/manexo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,96 +498,104 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>---</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 121</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>---</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No contexto do Anexo Estratégico de Comunicação Social, como são definidas as "Condicionantes" no planejamento?</t>
+          <t>---</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>São as restrições orçamentárias que impedem a contratação de agências de publicidade civis.</t>
+          <t>---</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>São fatores que influenciam o planejamento e o desencadeamento das ações de Comunicação Social, como diretrizes de órgãos afins (ex: SECOM-PR).</t>
+          <t>---</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>São os objetivos finais impostos pelo inimigo que limitam a liberdade de imprensa na área de operações.</t>
+          <t>---</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>São exclusivamente as regras de engajamento que proíbem o uso de câmeras pelos combatentes.</t>
+          <t>---</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>---</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Conforme o **item 3** do Anexo D, as condicionantes são aquelas que influenciam o planejamento e o desencadeamento das ações de Comunicação Social.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 122</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O documento estabelece uma distinção entre "Objetivos Estratégicos" e "Ações Estratégicas". Qual das alternativas abaixo constitui um exemplo de Objetivo Estratégico listado no texto?</t>
+          <t>Não constitui atribuição subsidiária particular da Marinha:</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Divulgar a participação das Forças Armadas no planejamento e execução das ações.</t>
+          <t>Orientar e controlar a Marinha Mercante e suas atividades correlatas, no que interessa à defesa nacional.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Preparar porta-vozes por meio de realização de media training.</t>
+          <t>Prover a segurança da navegação aquaviária.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Contribuir para potencializar a dissuasão de ações que comprometam o sucesso da Campanha/Operação.</t>
+          <t>Patrulhamento.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Acompanhar as tendências e o ambiente informacional para assessorar o processo decisório.</t>
+          <t>Contribuir para a formulação e condução de políticas nacionais que digam respeito ao mar.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -597,65 +605,949 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Nos termos do **item 5**, alínea "b", contribuir para potencializar a dissuasão é um exemplo de Objetivo Estratégico (as demais opções são Ações ou Demandas).</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>O Patrulhamento está previsto no **inciso I do art. 16-A**, sendo uma ação geral das Forças Armadas, e não uma atribuição particular da Marinha listada no **art. 17**.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pág 23</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Marque a alternativa incorreta sobre Comandos Operacionais:</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A necessidade de criação de uma ZD será avaliada por ocasião da elaboração do PEECFA.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ComTO é um tipo de Comando Operacional que pode ser ativado de acordo com o Planejamento Estratégico de uma Hipótese de Emprego.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A delimitação do teatro de Operações ocorre na elaboração do respectivo PEECFA pelo EMCFA.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Zona de Defesa é parte do território pertencente à Zona de Combate onde o Comando Operacional planejará e coordenará as ações de defesa territorial.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>A alternativa D está incorreta conforme a referência ao **item 3.3.5.1** do MD30-M-01, Vol 1, citada na reconstituição, pois a Zona de Defesa distingue-se da Zona de Combate.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pág 43</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>As atividades do Com TO com os assuntos civis deverão ser cuidadosamente planejadas e executadas, de modo a reduzir os pontos de fricção entre a população civil e a força militar. Tais atividades não incluem:</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>a administração de governo e a assistência humanitária.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>a defesa civil, as ACiSo e a fiscalização tributária.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>o controle da população e o controle de refugiados, deslocados e evacuados.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>a coordenação das agências civis governamentais (operações interagências) ou ONGs, presentes na área do Comando Operacional.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Resposta adaptada, conforme o item 3.4.7, a interação deve ser amistosa e englobar temas como: administração de governo; assistência humanitária; defesa civil; ações cívico-sociais; controle da população; controle de evacuados, entre outros, portanto, fiscalização tributária não se enquadra nas hipóteses.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pág 43</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No contexto das Operações Conjuntas e do Estado Final Desejado (EFD), de modo geral, considera-se que o EFD será atingido quando tiver sido alcançada uma ou mais condições específicas. Assinale a alternativa que apresenta corretamente uma dessas condições.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A preservação da estrutura de apoio ao esforço de guerra do oponente, permitindo o prosseguimento das operações.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A quebra da vontade de lutar do oponente.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>O aumento das condições do governo oponente em congregar o povo para o esforço de guerra.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A manutenção da capacidade das Forças Armadas oponentes em um nível que permita uma oposição efetiva.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Resposta adaptada, conforme o item 3.4.5, alínea 'b', o EFD será atingido quando houver a quebra da vontade de lutar do oponente.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pág 67</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Em relação ao estabelecimento de ZD, marque a opção correta:</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A ativação de uma ZD implica a subordinação automática das organizações ou meios das demais Forças Singulares sediadas na área.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>As ZD serão ativadas pelo Min Def, NÃO havendo necessidade de autorização do PR.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Caso NÃO seja ativado ComZD, a defesa territorial em cada situação ficará a cargo dos Comandos Militares de Área (C Mil A)/Distrito Naval (DN)/COMAE com seus respectivos apoios logísticos.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>O Com ZD NÃO deve considerar a possibilidade de que os meios da ZD estejam operacionais antes mesmo daqueles do TO/A Op, a fim de proporcionar a devida proteção ao esforço de guerra.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Conforme o subitem 7.1.4 (e reforçado pelo subitem 7.1.10), na ausência de ZD, a defesa territorial fica a cargo dos Comandos Militares de Área/Distrito Naval/COMAE.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pág 77</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sobre o Comando de Defesa Cibernética (ComDCiber), assinale a alternativa correta:</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Não pertence à estrutura regimental de nenhuma Força Singular, estando subordinado diretamente ao MD.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Está diretamente subordinado ao SMDC.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tem capacidade de atuar em operações interagências.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Poderá, apenas em situações excepcionais, participar da elaboração do PEECFA.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Conforme o item 8.1.1, o ComDCiber é um Comando Operacional Conjunto, permanentemente ativado e com capacidade interagências.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>72</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pág 123</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pág 42</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Para facilitar o entendimento da situação atual e desejada, após a análise dos fatores gerais de um ambiente operacional, podem ser elaborados modelos gráficos. Nesse contexto, qual ferramenta é recomendada por basear-se na inferência lógica e apoiar-se em evidências para ajudar na identificação do problema?</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Matriz de Três Colunas</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Diagrama de Relações</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Matriz de Gerenciamento de Risco</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Conceito Preliminar da Operação</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Conforme o subitem 5.2.3.4.5 (MD30-M-01, Vol 2), recomenda-se a utilização do Diagrama de Relações para facilitar o entendimento da situação atual e desejada.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pág 63</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No contexto do Processo de Planejamento Conjunto, durante a preparação para a realização do Confronto, é estabelecida a função do Árbitro. Qual é a atribuição específica desse agente?</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Definir as regras e o método para a condução do Confronto.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Apontar as impropriedades doutrinárias observadas nas interações.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Decidir sobre os aperfeiçoamentos que poderão ser inseridas na Linha de Ação (LA).</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Fazer o registro do Confronto contendo as conclusões mais importantes.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.4.4.3.3, o Árbitro deve decidir sobre os aperfeiçoamentos que poderão ser inseridas na LA, em função das conclusões do Confronto.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pág 66</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No Processo de Planejamento Conjunto, especificamente após a realização do Confronto entre Linhas de Ação (LA) e Possibilidades do Inimigo (Psb Ini), diversas conclusões são obtidas para fundamentar a fase seguinte. Assinale a alternativa que NÃO apresenta uma dessas conclusões previstas doutrinariamente.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A capacidade do inimigo em se opor a cada LA.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A necessidade de subdividir as forças.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>As vantagens e desvantagens de cada LA.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A quantidade e características gerais dos meios militares dos oponentes.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.4.4.5.1, são conclusões do confronto a capacidade do inimigo, a necessidade de subdividir forças e as vantagens/desvantagens; a opção D refere-se à Comparação de Poderes de Combate (CPC) (item 5.3.8.4.a.1).</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pág 77</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Após a aprovação do Conceito da Operação pelo Comandante, são formalizadas as informações aos comandos subordinados. De acordo com a doutrina de planejamento conjunto, a quem cabe a responsabilidade pela redação do Plano Operacional?</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>É atribuição exclusiva da Seção de Planejamento (D5), cabendo à Seção de Operações (D3) apenas a revisão final.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Deve ser realizada pelos Comandantes das Forças Componentes, de forma descentralizada, para validação da decisão.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>A redação constitui atribuição da Seção de Operações (D3) com o apoio da Seção de Planejamento (D5).</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cabe ao Chefe do Estado-Maior Conjunto a redação integral, dada a necessidade de integração e coordenação de esforços.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Conforme o item 6.3.4.1, a redação do Plano Operacional constitui atribuição da Seção de Operações (D3), com apoio da Seção de Planejamento (D5).</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pág 76</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sobre a 2ª Etapa do Processo de Planejamento Conjunto (Elaboração de Planos e Ordens), especificamente quanto à Fase de Desenvolvimento do Conceito da Operação, assinale a alternativa incorreta.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Nesta fase, organizam-se os meios adjudicados de acordo com as operações a serem empreendidas.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>O Conceito da Operação não poderá ser divulgado para os subordinados neste momento, pois ainda não está na formatação final do Plano Operacional.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>O Conceito da Operação será elaborado tomando como base o Conceito Preliminar da Operação (CPO).</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Será estabelecido como será executada cada operação pelas Forças Componentes, sincronizando-as no espaço e no tempo.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Conforme o item 6.2.8.1, o Conceito da Operação poderá, a critério do Comandante operacional, ser divulgado para os subordinados, mesmo antes da formatação final.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pág 87</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>A reunião da rotina de trabalho estabelecida pelo EMCj, realizada durante a etapa do Controle da Operação Planejada, tem como propósito elaborar a versão preliminar da Ordem de Coordenação (O Coor). Além disso, é considerada a principal reunião para a coordenação das atividades, pois condensa todas as informações das demais reuniões do EMCj. A qual reunião o texto se refere?</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Reunião de Coordenação de Fogos.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Reunião de Coordenação de Operações.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Reunião de Coordenação de Operações de Informação.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Reunião de Situação.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Conforme o item 7.3.6.11.1, seu propósito é elaborar a versão preliminar da O Coor, e o item 7.3.6.11.3 destaca que ela condensa as informações das demais reuniões.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pág 4 do Anexo</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>177</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>De acordo com as "Prescrições Diversas", qual é a conduta prevista para o Comandante Operacional em caso de comprometimento da imagem atinente à participação das Forças Armadas?</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Deve decidir no seu nível, depois de consultado o escalão superior, quanto ao uso das ferramentas da informação para o gerenciamento da crise.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Deve interromper imediatamente todas as operações militares até que a imagem institucional seja restaurada pela imprensa.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Deve delegar a gestão da crise exclusivamente aos porta-vozes táticos, sem necessidade de consulta ao escalão superior.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Deve manter silêncio absoluto e proibir qualquer manifestação oficial até o término da campanha.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Conforme o **item 9**, alínea "d", o Comandante Operacional decidirá no seu nível, depois de consultado o escalão superior, quanto ao uso das ferramentas.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>(Adaptada) Com base na doutrina de Operações Conjuntas sobre a Arte Operacional, assinale a alternativa incorreta:</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A arte operacional está relacionada ao entendimento do ambiente e do problema operacional, ao longo da 1ª fase do Exame de Situação.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Na aplicação da Arte Operacional, o Cmt TO e seu EMCj utilizam ferramentas intelectuais que ajudam a comunicar uma visão comum do ambiente operacional.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>A Arte Operacional é a concepção e planejamento contínuo e sistêmico de operações e campanhas militares sincronizadas que produzirão efeitos essenciais para a consecução dos objetivos operacionais de modo a atingir as Capacidades Críticas.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A arte operacional nos dá uma visão que permite que as metas genéricas e abstratas do nível estratégico se traduzam em ações no nível operacional.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>A assertiva está incorreta pois, conforme o item 1.1 do Anexo D, a Arte Operacional gera condições que favoreçam a consecução do EFD Op (Estado Final Desejado Operacional), e não das "Capacidades Críticas".</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pág 13 do Anexo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>(Adaptada) Com base na doutrina de Operações Conjuntas relativa ao Desenho Operacional, assinale a alternativa correta:</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>A transformação da situação inicial em final é feita através do estabelecimento de condições (pontos de decisão) ao longo de diferentes linhas de operação.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>O desenho operacional, por apresentar "o que deve ser feito", pode ser estático ou definitivo durante o planejamento.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>O desenho não é uma Linha de Ação, uma execução sincronizada de ações, se constitui em um arquétipo (esqueleto) que deve ser capaz de abarcar várias linhas de ação.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>O desenho operacional é a manifestação da visão e da criatividade, enquanto a arte operacional é a extensão prática do processo criativo.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Conforme o **item 5.10 do Anexo D**, o desenho não é uma Linha de Ação, mas sim um arquétipo (esqueleto) que deve ser capaz de abarcar várias linhas de ação.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>(Adaptada) Com base na doutrina de Operações Conjuntas e nas características dos Centros de Gravidade (CG), assinale a alternativa correta:</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>O Centro de Gravidade é um conceito aplicável exclusivamente ao nível estratégico, representado invariavelmente pela vontade nacional ou opinião pública.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nos níveis operacional e tático, dentro de um ambiente de Guerra Convencional entre dois Estados, normalmente os CG são forças militares específicas.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sob uma perspectiva ampla, o CG deve ser sempre um elemento intangível, não podendo ser representado por forças oponentes ou estruturas de comando.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>A identificação do CG ocorre apenas na execução da campanha, não sendo considerada durante a fase de Exame de Situação ou no Desenho Operacional.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>A alternativa está correta conforme o item 4.4.4 do Anexo D, que afirma que nos níveis operacional e tático, em guerra convencional, os CG são normalmente forças militares específicas (natureza física).</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pág 61</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>(Adaptada) Conforme a concepção de emprego do Comando de Operações Aeroespaciais (COMAE), assinale a alternativa incorreta sobre suas competências:</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Realizar a defesa aeroespacial do território nacional contra todas as formas de ameaça, a fim de assegurar o exercício da soberania no espaço aéreo brasileiro.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Empregar os meios sob seu comando operacional, incluídos os necessários para o estabelecimento dos procedimentos a serem seguidos com relação às aeronaves hostis ou suspeitas de tráfico de substâncias entorpecentes e drogas afins.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Planejar, coordenar, supervisionar, controlar e executar o emprego do Poder Aeroespacial.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Atuar, em casos definidos na legislação em vigor, sobre as aeronaves consideradas suspeitas.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>A assertiva está incorreta pois, conforme o **item 6.2.1, alínea "b"**, do Capítulo VI, compete ao COMAE empregar os meios sob seu **controle operacional**, e não comando operacional.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
